--- a/admin/output.xlsx
+++ b/admin/output.xlsx
@@ -36,7 +36,7 @@
     <t>JUSTIFICATION</t>
   </si>
   <si>
-    <t>New Value 1</t>
+    <t>WASSUP CUH</t>
   </si>
   <si>
     <t>NIBBA</t>

--- a/admin/output.xlsx
+++ b/admin/output.xlsx
@@ -36,10 +36,10 @@
     <t>JUSTIFICATION</t>
   </si>
   <si>
-    <t>WASSUP CUH</t>
-  </si>
-  <si>
-    <t>NIBBA</t>
+    <t>WASSUP</t>
+  </si>
+  <si>
+    <t>HELLO WORLD</t>
   </si>
   <si>
     <t>Please use additional paper if the request is more than 10 items</t>

--- a/admin/output.xlsx
+++ b/admin/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>PR#:</t>
   </si>
@@ -36,137 +36,73 @@
     <t>JUSTIFICATION</t>
   </si>
   <si>
-    <t>GIMME IRISH SPRING</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>HEAD AND SHOULDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> new</t>
-  </si>
-  <si>
-    <t>PILLOW</t>
-  </si>
-  <si>
-    <t>SHIRT</t>
-  </si>
-  <si>
-    <t>PANTS</t>
-  </si>
-  <si>
-    <t>SHORTS</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
-    <t>BOTTLE</t>
-  </si>
-  <si>
-    <t>COKE</t>
-  </si>
-  <si>
-    <t>RUM</t>
-  </si>
-  <si>
-    <t>SPRITE</t>
-  </si>
-  <si>
-    <t>(If above P 50,000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   University Treasurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Budget Controller</t>
-  </si>
-  <si>
-    <t>Cluser Vice President</t>
-  </si>
-  <si>
-    <t>Unit Head</t>
-  </si>
-  <si>
-    <t>Requestor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-        <u val="single"/>
-      </rPr>
-      <t xml:space="preserve">Lennie K Ong</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-        <u val="single"/>
-      </rPr>
-      <t xml:space="preserve"> Marilyn M Castañares</t>
-    </r>
-  </si>
-  <si>
-    <t>_________________</t>
-  </si>
-  <si>
-    <t>________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Acct. Code:___________________</t>
-  </si>
-  <si>
-    <t>Approved by:</t>
-  </si>
-  <si>
-    <t>Requested by:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  For Finance Office Use</t>
-  </si>
-  <si>
-    <t>Department of justice</t>
-  </si>
-  <si>
-    <t>Unit/Dept:________________________________</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEW</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  NEW</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -234,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -252,79 +188,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="hair">
         <color rgb="FF000000"/>
@@ -396,11 +261,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -409,45 +302,57 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -825,10 +730,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A12">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -860,33 +765,33 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="5"/>
@@ -904,413 +809,451 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:16" customHeight="1" ht="20.25">
-      <c r="A6" s="30">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="27" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:16" customHeight="1" ht="20.25">
-      <c r="A7" s="30">
+      <c r="A7" s="15">
         <v>2</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="15">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" customHeight="1" ht="20.25">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" customHeight="1" ht="20.25">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" customHeight="1" ht="20.25">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" customHeight="1" ht="20.25">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" customHeight="1" ht="20.25">
+      <c r="A12" s="15">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" customHeight="1" ht="20.25">
+      <c r="A13" s="15">
         <v>8</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" customHeight="1" ht="20.25">
-      <c r="A8" s="30">
-        <v>3</v>
-      </c>
-      <c r="B8" s="30">
+      <c r="B13" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" customHeight="1" ht="20.25">
+      <c r="A14" s="15">
+        <v>9</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" customHeight="1" ht="20.25">
+      <c r="A15" s="15">
         <v>10</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" customHeight="1" ht="20.25">
-      <c r="A9" s="30">
-        <v>4</v>
-      </c>
-      <c r="B9" s="30">
+      <c r="B15" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" customHeight="1" ht="12.75">
+      <c r="A16" s="15">
         <v>11</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" customHeight="1" ht="20.25">
-      <c r="A10" s="30">
-        <v>5</v>
-      </c>
-      <c r="B10" s="30">
+      <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" customHeight="1" ht="20.25">
-      <c r="A11" s="30">
-        <v>6</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="B17" s="15">
         <v>1</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="18">
         <v>13</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" customHeight="1" ht="20.25">
-      <c r="A12" s="30">
-        <v>7</v>
-      </c>
-      <c r="B12" s="30">
+      <c r="B18" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" customHeight="1" ht="20.25">
-      <c r="A13" s="30">
-        <v>8</v>
-      </c>
-      <c r="B13" s="30">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" customHeight="1" ht="20.25">
-      <c r="A14" s="30">
-        <v>9</v>
-      </c>
-      <c r="B14" s="30">
-        <v>1</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" customHeight="1" ht="20.25">
-      <c r="A15" s="30">
-        <v>10</v>
-      </c>
-      <c r="B15" s="30">
-        <v>1</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" customHeight="1" ht="12.75">
-      <c r="A16" s="30">
-        <v>11</v>
-      </c>
-      <c r="B16" s="30">
-        <v>1</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="1:16" customHeight="1" ht="12.75">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="C18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
+    <row r="19" spans="1:16" customHeight="1" ht="9">
+      <c r="A19" s="18">
+        <v>14</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" customHeight="1" ht="9">
-      <c r="A20" s="13"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+    <row r="20" spans="1:16">
+      <c r="A20" s="18">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15">
+        <v>2</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="14"/>
       <c r="M20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="A21" s="15">
+        <v>16</v>
+      </c>
+      <c r="B21" s="15">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="14"/>
       <c r="M21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="15"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="A22" s="15">
+        <v>17</v>
+      </c>
+      <c r="B22" s="15">
+        <v>6</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="14"/>
       <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="9" t="s">
+      <c r="A23" s="18">
+        <v>18</v>
+      </c>
+      <c r="B23" s="15">
+        <v>10</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>25</v>
       </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="14"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -1318,88 +1261,426 @@
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A24" s="15">
+        <v>19</v>
+      </c>
+      <c r="B24" s="15">
+        <v>7</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="20"/>
+      <c r="A25" s="15">
+        <v>20</v>
+      </c>
+      <c r="B25" s="15">
+        <v>8</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="15">
+        <v>21</v>
+      </c>
+      <c r="B26" s="15">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1428,6 +1709,26 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="I16:L16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:L26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
